--- a/ConceptMap-R5-Evidence-elements-for-R4-Evidence.xlsx
+++ b/ConceptMap-R5-Evidence-elements-for-R4-Evidence.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="199">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.8288051-06:00</t>
+    <t>2026-02-17T14:42:27.2263017-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -583,27 +583,6 @@
   </si>
   <si>
     <t>certainty</t>
-  </si>
-  <si>
-    <t>Evidence.statistic.modelCharacteristic.attributeEstimate.description</t>
-  </si>
-  <si>
-    <t>Evidence.statistic.modelCharacteristic.attributeEstimate.note</t>
-  </si>
-  <si>
-    <t>Evidence.statistic.modelCharacteristic.attributeEstimate.type</t>
-  </si>
-  <si>
-    <t>Evidence.statistic.modelCharacteristic.attributeEstimate.quantity</t>
-  </si>
-  <si>
-    <t>Evidence.statistic.modelCharacteristic.attributeEstimate.level</t>
-  </si>
-  <si>
-    <t>Evidence.statistic.modelCharacteristic.attributeEstimate.range</t>
-  </si>
-  <si>
-    <t>Evidence.statistic.modelCharacteristic.attributeEstimate.attributeEstimate</t>
   </si>
   <si>
     <t>Evidence.certainty.description</t>
@@ -887,7 +866,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E89"/>
+  <dimension ref="A1:E82"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1931,7 +1910,7 @@
         <v>193</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>143</v>
+        <v>194</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -1941,10 +1920,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>166</v>
+        <v>196</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -1954,107 +1933,16 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>168</v>
+        <v>198</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
         <v>32</v>
       </c>
       <c r="E82" s="2"/>
-    </row>
-    <row r="83">
-      <c r="A83" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="B83" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="C83" s="2"/>
-      <c r="D83" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="E83" s="2"/>
-    </row>
-    <row r="84">
-      <c r="A84" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="B84" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="C84" s="2"/>
-      <c r="D84" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="E84" s="2"/>
-    </row>
-    <row r="85">
-      <c r="A85" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="B85" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="C85" s="2"/>
-      <c r="D85" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="E85" s="2"/>
-    </row>
-    <row r="86">
-      <c r="A86" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="B86" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="C86" s="2"/>
-      <c r="D86" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="E86" s="2"/>
-    </row>
-    <row r="87">
-      <c r="A87" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="B87" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="C87" s="2"/>
-      <c r="D87" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="E87" s="2"/>
-    </row>
-    <row r="88">
-      <c r="A88" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="B88" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="C88" s="2"/>
-      <c r="D88" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="E88" s="2"/>
-    </row>
-    <row r="89">
-      <c r="A89" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="B89" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="C89" s="2"/>
-      <c r="D89" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="E89" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
